--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_14_14.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_14_14.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-12827.95228150544</v>
+        <v>898.4058559126861</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10268837.60356263</v>
+        <v>10414372.90082427</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24544470.22778837</v>
+        <v>24690005.52504999</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3161889.07843841</v>
+        <v>3057988.557334842</v>
       </c>
     </row>
     <row r="11">
@@ -8933,13 +8935,13 @@
         <v>130.6648563030561</v>
       </c>
       <c r="M14" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>110.5750244233121</v>
       </c>
       <c r="O14" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>135.4597561231036</v>
@@ -9006,25 +9008,25 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K15" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>65.92768427608706</v>
       </c>
       <c r="Q15" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9088,16 +9090,16 @@
         <v>94.30397654773019</v>
       </c>
       <c r="L16" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>101.5955875616828</v>
@@ -9164,22 +9166,22 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K17" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>110.5750244233121</v>
       </c>
       <c r="O17" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>150.3839754851235</v>
@@ -9240,25 +9242,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>80.29914934735042</v>
       </c>
       <c r="L18" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>94.49434172313325</v>
@@ -9322,16 +9324,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>96.22962838366004</v>
@@ -9401,7 +9403,7 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K20" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9410,7 +9412,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9419,7 +9421,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9477,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9568,10 +9570,10 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -9638,19 +9640,19 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K23" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9711,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
         <v>93.17061249236157</v>
@@ -9729,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9796,25 +9798,25 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9872,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K26" t="n">
         <v>135.370731907559</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9887,13 +9889,13 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9954,22 +9956,22 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K27" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P27" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>94.49434172313325</v>
@@ -10036,13 +10038,13 @@
         <v>94.30397654773019</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M28" t="n">
         <v>92.09541281912071</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O28" t="n">
         <v>96.22962838366004</v>
@@ -10191,10 +10193,10 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K30" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>94.49434172313325</v>
@@ -10358,7 +10360,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10367,7 +10369,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10446,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10604,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10683,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10747,13 +10749,13 @@
         <v>94.30397654773019</v>
       </c>
       <c r="L37" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>92.09541281912071</v>
       </c>
       <c r="N37" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>96.22962838366004</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10978,16 +10980,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
         <v>94.30397654773019</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N40" t="n">
         <v>81.96869489115805</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11157,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11227,7 +11229,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -23525,13 +23527,13 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -23598,25 +23600,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R15" t="n">
         <v>78.03303713061706</v>
@@ -23680,16 +23682,16 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -23756,22 +23758,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -23832,25 +23834,25 @@
         <v>77.12765456497084</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M18" t="n">
         <v>51.84373129681028</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -23914,16 +23916,16 @@
         <v>72.23757736389061</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -23993,7 +23995,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L20" t="n">
         <v>130.6648563030561</v>
@@ -24002,7 +24004,7 @@
         <v>113.4004983079896</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O20" t="n">
         <v>117.8828208804077</v>
@@ -24011,7 +24013,7 @@
         <v>135.4597561231036</v>
       </c>
       <c r="Q20" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>108.0327934026353</v>
@@ -24069,7 +24071,7 @@
         <v>77.12765456497084</v>
       </c>
       <c r="J21" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>80.29914934735042</v>
@@ -24160,10 +24162,10 @@
         <v>92.09541281912071</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P22" t="n">
         <v>101.5955875616828</v>
@@ -24230,19 +24232,19 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L23" t="n">
         <v>130.6648563030561</v>
       </c>
       <c r="M23" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>110.5750244233121</v>
       </c>
       <c r="O23" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>135.4597561231036</v>
@@ -24303,7 +24305,7 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I24" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24321,16 +24323,16 @@
         <v>38.66169381481656</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R24" t="n">
-        <v>78.03303713061706</v>
+        <v>123.5547069419379</v>
       </c>
       <c r="S24" t="n">
         <v>165.0641745378389</v>
@@ -24388,25 +24390,25 @@
         <v>72.23757736389061</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N25" t="n">
         <v>81.96869489115805</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q25" t="n">
-        <v>61.14583096471014</v>
+        <v>126.4887893424616</v>
       </c>
       <c r="R25" t="n">
         <v>163.8605191622716</v>
@@ -24464,13 +24466,13 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J26" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>113.4004983079896</v>
@@ -24479,13 +24481,13 @@
         <v>110.5750244233121</v>
       </c>
       <c r="O26" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>108.0327934026353</v>
@@ -24546,22 +24548,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M27" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>38.66169381481656</v>
       </c>
       <c r="O27" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -24628,13 +24630,13 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -24783,10 +24785,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M30" t="n">
         <v>51.84373129681028</v>
@@ -24798,7 +24800,7 @@
         <v>57.81213424001893</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -24950,7 +24952,7 @@
         <v>113.4004983079896</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O32" t="n">
         <v>117.8828208804077</v>
@@ -24959,7 +24961,7 @@
         <v>135.4597561231036</v>
       </c>
       <c r="Q32" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>108.0327934026353</v>
@@ -25017,7 +25019,7 @@
         <v>77.12765456497084</v>
       </c>
       <c r="J33" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>80.29914934735042</v>
@@ -25038,7 +25040,7 @@
         <v>65.92768427608706</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R33" t="n">
         <v>78.03303713061706</v>
@@ -25196,7 +25198,7 @@
         <v>135.4597561231036</v>
       </c>
       <c r="Q35" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>108.0327934026353</v>
@@ -25275,7 +25277,7 @@
         <v>65.92768427608706</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R36" t="n">
         <v>78.03303713061706</v>
@@ -25339,13 +25341,13 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -25412,7 +25414,7 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J38" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>135.370731907559</v>
@@ -25570,16 +25572,16 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J40" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -25649,7 +25651,7 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J41" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>135.370731907559</v>
@@ -25749,7 +25751,7 @@
         <v>65.92768427608706</v>
       </c>
       <c r="Q42" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>78.03303713061706</v>
@@ -25819,7 +25821,7 @@
         <v>92.09541281912071</v>
       </c>
       <c r="N43" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>96.22962838366004</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>364694.142822138</v>
+        <v>288809.8323486014</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>360847.3379599145</v>
+        <v>234126.9916772344</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>218241.6403172876</v>
+        <v>204358.8141148659</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>258594.7220672689</v>
+        <v>230454.468325944</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>223460.5917892577</v>
+        <v>315235.943839665</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>250139.8111874474</v>
+        <v>234750.1002025046</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>241148.5968273839</v>
+        <v>246595.763001371</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>213801.6124174268</v>
+        <v>220496.2475379781</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>187375.6935610631</v>
+        <v>213801.6124174268</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>166064.8242706233</v>
+        <v>193864.4916710733</v>
       </c>
     </row>
     <row r="16">
@@ -26323,34 +26325,34 @@
         <v>65627.26687505415</v>
       </c>
       <c r="F2" t="n">
-        <v>80024.38370490453</v>
+        <v>64847.52161019725</v>
       </c>
       <c r="G2" t="n">
-        <v>79255.02273245985</v>
+        <v>53910.95347592385</v>
       </c>
       <c r="H2" t="n">
-        <v>50733.88320393451</v>
+        <v>47957.31796345015</v>
       </c>
       <c r="I2" t="n">
-        <v>58804.49955393076</v>
+        <v>53176.44880566579</v>
       </c>
       <c r="J2" t="n">
-        <v>51777.67349832851</v>
+        <v>70132.74390840999</v>
       </c>
       <c r="K2" t="n">
-        <v>57113.51737796645</v>
+        <v>54035.57518097788</v>
       </c>
       <c r="L2" t="n">
-        <v>55315.27450595376</v>
+        <v>56404.70774075118</v>
       </c>
       <c r="M2" t="n">
+        <v>51184.80464807258</v>
+      </c>
+      <c r="N2" t="n">
         <v>49845.87762396233</v>
       </c>
-      <c r="N2" t="n">
-        <v>44560.69385268958</v>
-      </c>
       <c r="O2" t="n">
-        <v>40298.51999460161</v>
+        <v>45858.45347469164</v>
       </c>
       <c r="P2" t="n">
         <v>39557.7554205309</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26427,34 +26429,34 @@
         <v>30199.49117266946</v>
       </c>
       <c r="F4" t="n">
-        <v>44596.60800251982</v>
+        <v>29419.74590781255</v>
       </c>
       <c r="G4" t="n">
-        <v>43827.24703007516</v>
+        <v>18483.17777353916</v>
       </c>
       <c r="H4" t="n">
-        <v>15306.10750154983</v>
+        <v>12529.54226106547</v>
       </c>
       <c r="I4" t="n">
-        <v>23376.72385154608</v>
+        <v>17748.67310328111</v>
       </c>
       <c r="J4" t="n">
-        <v>16349.89779594383</v>
+        <v>34704.9682060253</v>
       </c>
       <c r="K4" t="n">
-        <v>21685.74167558177</v>
+        <v>18607.7994785932</v>
       </c>
       <c r="L4" t="n">
-        <v>19887.49880356908</v>
+        <v>20976.93203836649</v>
       </c>
       <c r="M4" t="n">
+        <v>15757.0289456879</v>
+      </c>
+      <c r="N4" t="n">
         <v>14418.10192157765</v>
       </c>
-      <c r="N4" t="n">
-        <v>9132.918150304889</v>
-      </c>
       <c r="O4" t="n">
-        <v>4870.744292216927</v>
+        <v>10430.67777230695</v>
       </c>
       <c r="P4" t="n">
         <v>4129.979718146214</v>
@@ -26528,22 +26530,22 @@
         <v>-33627.6</v>
       </c>
       <c r="E6" t="n">
-        <v>-101283.8364026236</v>
+        <v>-101283.8364026237</v>
       </c>
       <c r="F6" t="n">
-        <v>31816.16359737638</v>
+        <v>31816.16359737637</v>
       </c>
       <c r="G6" t="n">
         <v>31816.16359737637</v>
       </c>
       <c r="H6" t="n">
-        <v>31816.16359737637</v>
+        <v>31816.16359737636</v>
       </c>
       <c r="I6" t="n">
         <v>31816.16359737636</v>
       </c>
       <c r="J6" t="n">
-        <v>31816.16359737637</v>
+        <v>31816.16359737636</v>
       </c>
       <c r="K6" t="n">
         <v>31816.16359737636</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_14_14.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_14_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>898.4058559126861</v>
+        <v>-124211.492941564</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10414372.90082427</v>
+        <v>8041589.773721423</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24690005.52504999</v>
+        <v>22317222.39794713</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3057988.557334842</v>
+        <v>4250429.308692547</v>
       </c>
     </row>
     <row r="11">
@@ -8528,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8765,34 +8765,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8935,13 +8935,13 @@
         <v>130.6648563030561</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N14" t="n">
         <v>110.5750244233121</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P14" t="n">
         <v>135.4597561231036</v>
@@ -9008,25 +9008,25 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P15" t="n">
         <v>65.92768427608706</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9090,16 +9090,16 @@
         <v>94.30397654773019</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P16" t="n">
         <v>101.5955875616828</v>
@@ -9166,22 +9166,22 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N17" t="n">
         <v>110.5750244233121</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q17" t="n">
         <v>150.3839754851235</v>
@@ -9242,25 +9242,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K18" t="n">
         <v>80.29914934735042</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q18" t="n">
         <v>94.49434172313325</v>
@@ -9324,16 +9324,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O19" t="n">
         <v>96.22962838366004</v>
@@ -9403,22 +9403,22 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q20" t="n">
         <v>150.3839754851235</v>
@@ -9482,25 +9482,25 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9561,22 +9561,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9640,22 +9640,22 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M23" t="n">
         <v>113.4004983079896</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O23" t="n">
         <v>117.8828208804077</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q23" t="n">
         <v>150.3839754851235</v>
@@ -9719,28 +9719,28 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9798,25 +9798,25 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9883,10 +9883,10 @@
         <v>130.6648563030561</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O26" t="n">
         <v>117.8828208804077</v>
@@ -9956,22 +9956,22 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M27" t="n">
         <v>51.84373129681028</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O27" t="n">
         <v>57.81213424001893</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q27" t="n">
         <v>94.49434172313325</v>
@@ -10114,22 +10114,22 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q29" t="n">
         <v>150.3839754851235</v>
@@ -10193,22 +10193,22 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q30" t="n">
         <v>94.49434172313325</v>
@@ -10354,19 +10354,19 @@
         <v>135.370731907559</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q32" t="n">
         <v>150.3839754851235</v>
@@ -10430,25 +10430,25 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10588,22 +10588,22 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q35" t="n">
         <v>150.3839754851235</v>
@@ -10667,25 +10667,25 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10749,13 +10749,13 @@
         <v>94.30397654773019</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M37" t="n">
         <v>92.09541281912071</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O37" t="n">
         <v>96.22962838366004</v>
@@ -10825,25 +10825,25 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10904,22 +10904,22 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q39" t="n">
         <v>94.49434172313325</v>
@@ -11062,25 +11062,25 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11141,22 +11141,22 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q42" t="n">
         <v>94.49434172313325</v>
@@ -11220,22 +11220,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N43" t="n">
         <v>81.96869489115805</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11372,31 +11372,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11460,19 +11460,19 @@
         <v>94.30397654773019</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23120,34 +23120,34 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23202,28 +23202,28 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -23357,34 +23357,34 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I12" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J12" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S12" t="n">
         <v>165.0641745378389</v>
@@ -23439,28 +23439,28 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J13" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K13" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R13" t="n">
         <v>163.8605191622716</v>
@@ -23527,13 +23527,13 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -23600,25 +23600,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>78.03303713061706</v>
@@ -23682,16 +23682,16 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -23758,22 +23758,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -23834,25 +23834,25 @@
         <v>77.12765456497084</v>
       </c>
       <c r="J18" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -23916,16 +23916,16 @@
         <v>72.23757736389061</v>
       </c>
       <c r="K19" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -23995,22 +23995,22 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -24074,25 +24074,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>78.03303713061706</v>
@@ -24153,22 +24153,22 @@
         <v>72.23757736389061</v>
       </c>
       <c r="K22" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>61.14583096471014</v>
@@ -24232,22 +24232,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -24311,28 +24311,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S24" t="n">
         <v>165.0641745378389</v>
@@ -24390,25 +24390,25 @@
         <v>72.23757736389061</v>
       </c>
       <c r="K25" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R25" t="n">
         <v>163.8605191622716</v>
@@ -24475,10 +24475,10 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -24548,22 +24548,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -24706,22 +24706,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -24785,22 +24785,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -24946,19 +24946,19 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -25022,25 +25022,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>78.03303713061706</v>
@@ -25180,22 +25180,22 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -25259,25 +25259,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>78.03303713061706</v>
@@ -25341,13 +25341,13 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -25417,25 +25417,25 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>108.0327934026353</v>
@@ -25496,22 +25496,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -25654,25 +25654,25 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>108.0327934026353</v>
@@ -25733,22 +25733,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -25812,22 +25812,22 @@
         <v>72.23757736389061</v>
       </c>
       <c r="K43" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>61.14583096471014</v>
@@ -25888,28 +25888,28 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J44" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>108.0327934026353</v>
@@ -25964,31 +25964,31 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I45" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J45" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>78.03303713061706</v>
@@ -26052,19 +26052,19 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>61.14583096471014</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>254093.6190439003</v>
+        <v>376275.9193600624</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>292708.5586728859</v>
+        <v>364694.142822138</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>288809.8323486014</v>
+        <v>364694.142822138</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>234126.9916772344</v>
+        <v>364694.142822138</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>204358.8141148659</v>
+        <v>364694.142822138</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>230454.468325944</v>
+        <v>364694.142822138</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>315235.943839665</v>
+        <v>364694.142822138</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>234750.1002025046</v>
+        <v>364694.142822138</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>246595.763001371</v>
+        <v>364694.142822138</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>220496.2475379781</v>
+        <v>364694.142822138</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>213801.6124174268</v>
+        <v>364694.142822138</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>193864.4916710733</v>
+        <v>364694.142822138</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>162361.0014002697</v>
+        <v>364694.142822138</v>
       </c>
     </row>
   </sheetData>
@@ -26319,43 +26319,43 @@
         <v>75255.18387201249</v>
       </c>
       <c r="D2" t="n">
-        <v>50818.72380878007</v>
+        <v>75255.18387201248</v>
       </c>
       <c r="E2" t="n">
-        <v>65627.26687505415</v>
+        <v>80024.38370490453</v>
       </c>
       <c r="F2" t="n">
-        <v>64847.52161019725</v>
+        <v>80024.38370490453</v>
       </c>
       <c r="G2" t="n">
-        <v>53910.95347592385</v>
+        <v>80024.38370490453</v>
       </c>
       <c r="H2" t="n">
-        <v>47957.31796345015</v>
+        <v>80024.38370490453</v>
       </c>
       <c r="I2" t="n">
-        <v>53176.44880566579</v>
+        <v>80024.38370490453</v>
       </c>
       <c r="J2" t="n">
-        <v>70132.74390840999</v>
+        <v>80024.38370490453</v>
       </c>
       <c r="K2" t="n">
-        <v>54035.57518097788</v>
+        <v>80024.38370490453</v>
       </c>
       <c r="L2" t="n">
-        <v>56404.70774075118</v>
+        <v>80024.38370490453</v>
       </c>
       <c r="M2" t="n">
-        <v>51184.80464807258</v>
+        <v>80024.38370490453</v>
       </c>
       <c r="N2" t="n">
-        <v>49845.87762396233</v>
+        <v>80024.38370490453</v>
       </c>
       <c r="O2" t="n">
-        <v>45858.45347469164</v>
+        <v>80024.38370490453</v>
       </c>
       <c r="P2" t="n">
-        <v>39557.7554205309</v>
+        <v>80024.38370490453</v>
       </c>
     </row>
     <row r="3">
@@ -26423,43 +26423,43 @@
         <v>75255.18387201248</v>
       </c>
       <c r="D4" t="n">
-        <v>50818.72380878007</v>
+        <v>75255.18387201248</v>
       </c>
       <c r="E4" t="n">
-        <v>30199.49117266946</v>
+        <v>44596.60800251983</v>
       </c>
       <c r="F4" t="n">
-        <v>29419.74590781255</v>
+        <v>44596.60800251983</v>
       </c>
       <c r="G4" t="n">
-        <v>18483.17777353916</v>
+        <v>44596.60800251983</v>
       </c>
       <c r="H4" t="n">
-        <v>12529.54226106547</v>
+        <v>44596.60800251983</v>
       </c>
       <c r="I4" t="n">
-        <v>17748.67310328111</v>
+        <v>44596.60800251983</v>
       </c>
       <c r="J4" t="n">
-        <v>34704.9682060253</v>
+        <v>44596.60800251983</v>
       </c>
       <c r="K4" t="n">
-        <v>18607.7994785932</v>
+        <v>44596.60800251983</v>
       </c>
       <c r="L4" t="n">
-        <v>20976.93203836649</v>
+        <v>44596.60800251983</v>
       </c>
       <c r="M4" t="n">
-        <v>15757.0289456879</v>
+        <v>44596.60800251983</v>
       </c>
       <c r="N4" t="n">
-        <v>14418.10192157765</v>
+        <v>44596.60800251983</v>
       </c>
       <c r="O4" t="n">
-        <v>10430.67777230695</v>
+        <v>44596.60800251983</v>
       </c>
       <c r="P4" t="n">
-        <v>4129.979718146214</v>
+        <v>44596.60800251983</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.59999999998</v>
+        <v>-48778.27397003474</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.59999999998</v>
+        <v>-48778.27397003474</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-48778.27397003476</v>
       </c>
       <c r="E6" t="n">
-        <v>-101283.8364026237</v>
+        <v>-116093.8532417376</v>
       </c>
       <c r="F6" t="n">
-        <v>31816.16359737637</v>
+        <v>17006.14675826246</v>
       </c>
       <c r="G6" t="n">
-        <v>31816.16359737637</v>
+        <v>17006.14675826246</v>
       </c>
       <c r="H6" t="n">
-        <v>31816.16359737636</v>
+        <v>17006.14675826246</v>
       </c>
       <c r="I6" t="n">
-        <v>31816.16359737636</v>
+        <v>17006.14675826246</v>
       </c>
       <c r="J6" t="n">
-        <v>31816.16359737636</v>
+        <v>17006.14675826246</v>
       </c>
       <c r="K6" t="n">
-        <v>31816.16359737636</v>
+        <v>17006.14675826246</v>
       </c>
       <c r="L6" t="n">
-        <v>31816.16359737636</v>
+        <v>17006.14675826246</v>
       </c>
       <c r="M6" t="n">
-        <v>31816.16359737636</v>
+        <v>17006.14675826246</v>
       </c>
       <c r="N6" t="n">
-        <v>31816.16359737636</v>
+        <v>17006.14675826246</v>
       </c>
       <c r="O6" t="n">
-        <v>31816.16359737636</v>
+        <v>17006.14675826246</v>
       </c>
       <c r="P6" t="n">
-        <v>31816.16359737636</v>
+        <v>17006.14675826246</v>
       </c>
     </row>
   </sheetData>
